--- a/config_2.2/activity_044_khfl_config.xlsx
+++ b/config_2.2/activity_044_khfl_config.xlsx
@@ -309,10 +309,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼海底宝藏中击31条深海狂鲨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在3D捕鱼中通过击杀话费鱼累计获得50话费碎片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -467,6 +463,10 @@
   </si>
   <si>
     <t>500000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼海底宝藏中击3条深海狂鲨</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1226,7 +1226,7 @@
         <v>1000241</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>38</v>
@@ -1260,7 +1260,7 @@
         <v>1000242</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>54</v>
@@ -1272,7 +1272,7 @@
         <v>31</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -1324,7 +1324,7 @@
         <v>1000244</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>56</v>
@@ -1359,7 +1359,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E7" s="17">
         <v>1</v>
@@ -1368,7 +1368,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -1392,7 +1392,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="17">
         <v>1</v>
@@ -1415,10 +1415,10 @@
         <v>1000247</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="17">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>1000248</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>44</v>
@@ -1477,7 +1477,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1567,10 +1567,10 @@
         <v>1000249</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="17">
         <v>1</v>
@@ -1599,10 +1599,10 @@
         <v>1000250</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="17">
         <v>1</v>
@@ -1633,10 +1633,10 @@
         <v>1000251</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="17">
         <v>1</v>
@@ -1665,10 +1665,10 @@
         <v>1000252</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
@@ -1697,7 +1697,7 @@
         <v>1000253</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>46</v>
@@ -1729,10 +1729,10 @@
         <v>1000254</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="17">
         <v>1</v>
@@ -1762,10 +1762,10 @@
         <v>1000255</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="17">
         <v>1</v>
@@ -1788,10 +1788,10 @@
         <v>1000256</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="17">
         <v>1</v>
@@ -1814,10 +1814,10 @@
         <v>1000257</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="17">
         <v>1</v>

--- a/config_2.2/activity_044_khfl_config.xlsx
+++ b/config_2.2/activity_044_khfl_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础配置" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="81">
   <si>
     <t>index|索引</t>
   </si>
@@ -220,10 +220,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼中使用3次锁定卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在3D捕鱼中使用3次超级火力卡</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -236,27 +232,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>20000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在龙王争霸中累计赢金30万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -268,78 +244,18 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼深海探险当前层数+5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼深海探险当前层数+10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中通过击杀话费鱼累计获得50话费碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中通过击杀话费鱼累计获得150话费碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在3D捕鱼中通过击杀话费鱼累计获得300话费碎片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>50</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>150</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中累计赢金30万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中累计赢金80万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中累计赢金150万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在龙王争霸中累计赢金80万</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在龙王争霸中累计赢金150万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中连胜2局</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计纯赢80万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果大战中种出1次金苹果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>800000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>8000,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -349,18 +265,6 @@
   </si>
   <si>
     <t>15000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>800000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -375,16 +279,194 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼深海探险当前层数+2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>total|达成条件
 (任务进度条）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼深海探险当前层数+1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼深海探险当前层数+3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼海底宝藏中击杀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1条深海狂鲨</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼海底宝藏中击31条深海狂鲨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中通过击杀话费鱼累计获得50话费碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中通过击杀话费鱼累计获得150话费碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中累计赢金30万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中累计赢金80万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中累计赢金150万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在龙王争霸中累计赢金30万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在龙王争霸中累计赢金150万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中连胜2局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计纯赢80万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果大战中种出1次金苹果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500000</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -580,6 +662,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -894,10 +985,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -957,7 +1048,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -978,7 +1069,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -1012,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1047,7 +1138,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
@@ -1099,14 +1190,14 @@
       <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
-        <v>1000199</v>
+      <c r="B2" s="24">
+        <v>1000240</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="17">
         <v>1</v>
@@ -1115,11 +1206,11 @@
         <v>31</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="12" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="N2" s="11"/>
       <c r="O2" s="13"/>
@@ -1131,14 +1222,14 @@
       <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
-        <v>1000200</v>
+      <c r="B3" s="24">
+        <v>1000241</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="17">
         <v>1</v>
@@ -1147,14 +1238,14 @@
         <v>31</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="12" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="14"/>
@@ -1165,14 +1256,14 @@
       <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
-        <v>1000201</v>
+      <c r="B4" s="24">
+        <v>1000242</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>39</v>
+        <v>68</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="E4" s="17">
         <v>1</v>
@@ -1181,12 +1272,12 @@
         <v>31</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="L4" s="12" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="14"/>
@@ -1197,14 +1288,14 @@
       <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
-        <v>1000202</v>
+      <c r="B5" s="24">
+        <v>1000243</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
@@ -1213,12 +1304,12 @@
         <v>31</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="L5" s="12" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="14"/>
@@ -1229,14 +1320,14 @@
       <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
-        <v>1000203</v>
+      <c r="B6" s="24">
+        <v>1000244</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E6" s="17">
         <v>1</v>
@@ -1245,12 +1336,12 @@
         <v>31</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="L6" s="12" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="14"/>
@@ -1261,14 +1352,14 @@
       <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
-        <v>1000204</v>
+      <c r="B7" s="24">
+        <v>1000245</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E7" s="17">
         <v>1</v>
@@ -1277,12 +1368,12 @@
         <v>31</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="L7" s="12" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="14"/>
@@ -1294,14 +1385,14 @@
       <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="17">
-        <v>1000205</v>
+      <c r="B8" s="24">
+        <v>1000246</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E8" s="17">
         <v>1</v>
@@ -1310,24 +1401,24 @@
         <v>31</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
-        <v>1000206</v>
+      <c r="B9" s="24">
+        <v>1000247</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E9" s="17">
         <v>1</v>
@@ -1336,24 +1427,24 @@
         <v>31</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="17">
-        <v>1000207</v>
-      </c>
-      <c r="C10" s="17">
-        <v>300</v>
+      <c r="B10" s="24">
+        <v>1000248</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E10" s="17">
         <v>1</v>
@@ -1362,10 +1453,10 @@
         <v>31</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -1385,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1472,14 +1563,14 @@
       <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
-        <v>1000208</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>58</v>
+      <c r="B2" s="24">
+        <v>1000249</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="E2" s="17">
         <v>1</v>
@@ -1504,14 +1595,14 @@
       <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
-        <v>1000209</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>59</v>
+      <c r="B3" s="24">
+        <v>1000250</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="E3" s="17">
         <v>1</v>
@@ -1520,7 +1611,7 @@
         <v>31</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -1538,14 +1629,14 @@
       <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
-        <v>1000210</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>60</v>
+      <c r="B4" s="24">
+        <v>1000251</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="E4" s="17">
         <v>1</v>
@@ -1554,7 +1645,7 @@
         <v>31</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -1570,14 +1661,14 @@
       <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
-        <v>1000211</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>45</v>
+      <c r="B5" s="24">
+        <v>1000252</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
@@ -1602,14 +1693,14 @@
       <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
-        <v>1000212</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>61</v>
+      <c r="B6" s="24">
+        <v>1000253</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="E6" s="17">
         <v>1</v>
@@ -1618,7 +1709,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -1634,14 +1725,14 @@
       <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
-        <v>1000213</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>62</v>
+      <c r="B7" s="24">
+        <v>1000254</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="E7" s="17">
         <v>1</v>
@@ -1650,7 +1741,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -1663,18 +1754,18 @@
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="17">
-        <v>1000214</v>
-      </c>
-      <c r="C8" s="17">
-        <v>2</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>63</v>
+      <c r="B8" s="24">
+        <v>1000255</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="E8" s="17">
         <v>1</v>
@@ -1689,18 +1780,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
-        <v>1000215</v>
-      </c>
-      <c r="C9" s="17">
-        <v>800000</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>64</v>
+      <c r="B9" s="24">
+        <v>1000256</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="E9" s="17">
         <v>1</v>
@@ -1709,24 +1800,24 @@
         <v>31</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="17">
-        <v>1000216</v>
-      </c>
-      <c r="C10" s="17">
-        <v>1</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>65</v>
+      <c r="B10" s="24">
+        <v>1000257</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="E10" s="17">
         <v>1</v>
@@ -1735,7 +1826,7 @@
         <v>31</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>33</v>
